--- a/server/AajTak_Video.xlsx
+++ b/server/AajTak_Video.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Heading</t>
   </si>
@@ -31,13 +31,26 @@
     <t>Delhi Police lady constable Murder case: कांस्टेबल मोना की हत्या के बाद उसके पर‍िजनों को कैसे बरगलाता रहा कात‍िल, सामने आई ऑड‍ियो कॉल्स</t>
   </si>
   <si>
-    <t>Surendra Rana murder horoscopeRobin has run away with her. His name was Arvind.hello hello hello brotherBrother, I am Arvind in Gurgaon.tell me the hand and the mind got marriedAnd I am going to Punjab right nowI will come to you near Rohtak in 10-15 days, okaySanjay Bhai SahebWhere is he? I currently live here brother.You trust me for 10-15 days.I had to talk about that, not now.She's not in the mood, she's very dry, okay?10:15 Brother, trust me, I will definitely come home but it's okay.i youHow did you know him? I was his friend and we both got married.ok and now my family is after meThat's why I am going to Punjab, it's okay for nowHanuman is with you in 10-15 days. Don't take tension, you trust me, it's okay.Let's keep this number on, I'll talk if I have to.Brother, I don't have a phone, I have taken this number from someone else.ok i will contact you myselfI have your numbers ok okCompleteI kept misleading you for 2 years and kept listening to the voice of Ajit.The planning itself was how to source such evidence which would show that Mona is alive and finally she was killed.What was the reason for getting caught?Phulpur: Delhi Police case professional killer had planned in 2021Who murdered his colleague female police constable butIf you have seen Drishyam movie then it is exactly on the same lines.He did complete planning and today whatever story line is told when the crime branch official tells you.He spoke in one line, he is alive even after death.And she was talking to her family on the phone, on the second line she told this</t>
+    <t>Surendra Rana murder horoscopeRobin has run away with her. His name was Arvind.hello hello hello brotherBrother, I am Arvind in Gurgaon.tell me the hand and the mind got marriedAnd I am going to Punjab right nowI will come to you near Rohtak in 10-15 days, okayyes brotherWhere is he? I currently live here brother.You trust me for 10-15 days.I had to talk about that, not now.She's not in the mood, she's very dry, okay?10:15 Brother, trust me, I will definitely come home but it's okay.i youHow did you know him? I was his friend and we both got married.ok and now my family is after meThat's why I am going to Punjab, it's okay for nowHanuman is with you in 10-15 days. Don't take tension, you trust me, it's okay.Let's keep this number on, I'll talk if I have to.Brother, I don't have a phone, I have taken this number from someone else.ok i will contact you myselfI have your numbers ok okCompleteI kept misleading you for 2 years and kept listening to the voice of Ajit.The planning itself was how to source such evidence which would show that Mona is alive and finally she was killed.What was the reason for getting caught?Phulpur: Delhi Police case professional killer had planned in 2021Who murdered his colleague female police constable butIf you have seen Drishyam movie then it is exactly on the same lines.He did complete planning and today whatever story line the Crime Branch official tells when youHe spoke in one line, he is alive even after death.And she was talking to her family on the phone, on the second line she told this</t>
   </si>
   <si>
     <t>Delhi Police lady constable Murder case: द‍िल्ली पुल‍िस में हेडकांस्टेबल सुरेंद्र राणा के हाथों कांस्टेबल मोना के कत्ल का पर्दाफाश करीब 2 साल बाद हो चुका है. लेक‍िन आखिर मौत के 24 महीने बाद भी मोना के जिंदा रहने की पहेली क्या है. आप सुनेंगे तो सन्न रह जाएंगे.</t>
   </si>
   <si>
     <t>https://www.aajtak.in/india/delhi/video/delhi-police-head-constable-surendra-rana-kept-tricking-constable-mona-family-after-her-murder-audio-calls-revealed-1774425-2023-10-02</t>
+  </si>
+  <si>
+    <t>Firing In AMU: AMU में रातोरात धड़ाधड़ फायरिंग, आपस में भिड़े छात्रों के दो गुट</t>
+  </si>
+  <si>
+    <t>News from Aligarh where Aligarh Muslim UniversityThe police have been admitted to the medical college.There are two good nights in Aligarh campus and surprisingly there is firing there too.Who reached the campus with weapons and how did this question mark reach there?Having weapons inside the campus is also playing with the lives of other students and the police is now investigating this matter.Milk mixed together late at night is a case of Aligarh Muslim University.</t>
+  </si>
+  <si>
+    <t>अलीगढ़ मुस्लिम विश्वविद्यालय में देर रात छात्रों के दो गुट आपस में भिड़े. फायरिंग भी हुई है. गोलीबारी में तीन लोग हुए घायल. घायलों को मेडिकल कॉलेज में भर्ती कराया. पुलिस कर रही है मामले की जांच. देखें ये वीडियो.
+Late night, two groups of students clashed with each other in Aligarh Muslim University. There has also been firing. Three people were injured in the firing. The injured were admitted to the medical college. Police is investigating the matter. Watch this video.</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/video/uttar-pradesh-news-firing-in-aligarh-muslim-universtiy-at-midnight-3-student-injured-1791270-2023-10-03</t>
   </si>
 </sst>
 </file>
@@ -382,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +429,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
